--- a/IPE2/Plantillas documentos comerciales.xlsx
+++ b/IPE2/Plantillas documentos comerciales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catesa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://floridauniversitaria-my.sharepoint.com/personal/catesa_alumnatflorida_es/Documents/Documentos/2doDAM/2dam/IPE2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF60F1-DC29-49DA-89A5-2A106055A49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{A9BF60F1-DC29-49DA-89A5-2A106055A49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DC59A40-1458-4DB5-8817-97FFD4FEE0F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Albarán" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="FechaHoy" localSheetId="1">[1]Configuración!$L$26</definedName>
+    <definedName name="FechaHoy" localSheetId="2">[1]Configuración!$L$26</definedName>
+    <definedName name="FechaHoy">[2]Configuración!$L$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Albarán!$B$3:$H$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Factura!$B$3:$H$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Nota de abono'!$B$3:$H$37</definedName>
-    <definedName name="FechaHoy" localSheetId="1">[1]Configuración!$L$26</definedName>
-    <definedName name="FechaHoy" localSheetId="2">[1]Configuración!$L$26</definedName>
-    <definedName name="FechaHoy">[2]Configuración!$L$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,15 +42,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>Cliente:</t>
   </si>
@@ -204,14 +201,18 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>Recibí Carlos Teran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0\ &quot;€&quot;"/>
@@ -942,22 +943,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -969,68 +969,68 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1041,15 +1041,15 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -1057,7 +1057,7 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1080,18 +1080,18 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -1099,11 +1099,11 @@
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1162,7 +1162,7 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1173,20 +1173,20 @@
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="7" fontId="10" fillId="2" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="7" fontId="10" fillId="2" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="10" fillId="2" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="10" fillId="2" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="7" fontId="10" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="10" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="7" fontId="10" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1205,10 +1205,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="7" fontId="18" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="18" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -1236,7 +1236,7 @@
       <alignment horizontal="right" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1246,7 +1246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -1276,7 +1276,7 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -1296,6 +1296,36 @@
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1321,59 +1351,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1381,15 +1415,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1399,40 +1430,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -1814,535 +1822,489 @@
   <sheetPr codeName="Hoja4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="71" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="72" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="72" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="72" t="s">
+      <c r="D4" s="100"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="72" t="s">
+      <c r="D5" s="97"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29" t="s">
+      <c r="D6" s="97"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="126" t="s">
+      <c r="G6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="72" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="126" t="s">
+      <c r="G7" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="75" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="32" t="s">
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="76" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="76" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="91" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="111"/>
+      <c r="E13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="92">
+      <c r="G13" s="83"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="91">
         <v>1</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="6">
+      <c r="D14" s="113"/>
+      <c r="E14" s="5">
         <v>15</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <v>22</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="92">
+      <c r="G14" s="83"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="91">
         <v>2</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="7">
+      <c r="D15" s="96"/>
+      <c r="E15" s="6">
         <v>20</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>18</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="92">
+      <c r="G15" s="83"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="91">
         <v>3</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="108"/>
-      <c r="E16" s="7">
+      <c r="D16" s="95"/>
+      <c r="E16" s="6">
         <v>10</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <v>30</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="112" t="s">
+      <c r="G16" s="83"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="83"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="83"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="83"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="83"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="83"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="83"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="83"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="83"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="83"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="83"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="78"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="99" t="s">
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="100"/>
-      <c r="G29" s="101"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="80"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="80"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="80"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="79"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="79"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="79"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="79"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="82"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B30:D35"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C22:D22"/>
@@ -2359,19 +2321,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B30:D35"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B14:F28">
@@ -2389,657 +2338,647 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="71" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="119"/>
       <c r="H1" s="119"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="72" t="s">
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="72" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="72" t="s">
+      <c r="D4" s="100"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="97"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="72" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="72" t="s">
+      <c r="D6" s="97"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="75" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="32" t="s">
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="76" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="76" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="91" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="111"/>
+      <c r="E14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="92">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="91">
         <v>1</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="6">
+      <c r="D15" s="113"/>
+      <c r="E15" s="5">
         <v>15</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>22</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="57">
         <v>330</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="92">
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="91">
         <v>2</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="7"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="58">
+      <c r="C16" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="95"/>
+      <c r="E16" s="6">
+        <v>20</v>
+      </c>
+      <c r="F16" s="35">
+        <v>18</v>
+      </c>
+      <c r="G16" s="57">
+        <v>360</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="91">
+        <v>3</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+      <c r="F17" s="35">
+        <v>30</v>
+      </c>
+      <c r="G17" s="57">
         <f>E17*F17</f>
+        <v>300</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="57">
+        <f>E18*F17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="58">
-        <f t="shared" ref="G18:G29" si="0">E18*F18</f>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="57">
+        <f t="shared" ref="G18:G29" si="0">E19*F19</f>
         <v>0</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="58">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="58">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="58">
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="58">
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="58">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="58">
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="58">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="58">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="58">
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="58">
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="61" t="s">
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="62">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="61">
         <f>SUM(G15:G29)</f>
-        <v>330</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="63" t="s">
+        <v>990</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="64">
+      <c r="D31" s="4"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="63">
         <f>F31*G30</f>
         <v>0</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="42" t="s">
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="65">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="131">
+        <v>990</v>
+      </c>
+      <c r="G32" s="64">
         <f>G30-G31</f>
-        <v>330</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="40" t="s">
+        <v>990</v>
+      </c>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="66">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="130">
+        <v>207.9</v>
+      </c>
+      <c r="G33" s="65">
         <f>G32*$F$33</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="30" t="s">
+        <v>205821</v>
+      </c>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="70">
-        <f>G33+G32</f>
-        <v>330</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="112" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="69">
+        <v>1197.9000000000001</v>
+      </c>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="100"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="96"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="80"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="96"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="80"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="97"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="83"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="107"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="103"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="79"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="103"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="79"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="103"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="79"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="103"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="79"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="B39:D44"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -3056,28 +2995,14 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E38:G38"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
-  <conditionalFormatting sqref="B17:G29 B16:E16 G16 B15:G15">
+  <conditionalFormatting sqref="B19:G29 B18:E18 G18 B15:G17">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="95" orientation="portrait"/>
+  <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="G33" unlockedFormula="1"/>
   </ignoredErrors>
@@ -3089,615 +3014,586 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A12" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="89" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="72" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="72" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="72" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="72" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="72" t="s">
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="75" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="32" t="s">
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="76" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="76" t="s">
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="93" t="s">
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="86" t="s">
+      <c r="D14" s="127"/>
+      <c r="E14" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="58">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="57">
         <f>E17*F17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="58">
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="57">
         <f t="shared" ref="G19:G25" si="0">E19*F19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="58">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="58">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="58">
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="58">
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="58">
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="58">
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="58">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="57">
         <f>E28*F28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="60"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="120"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="58">
+      <c r="D29" s="96"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="57">
         <f>E29*F29</f>
         <v>0</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="61" t="s">
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="62">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="61">
         <f>SUM(G15:G29)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="63" t="s">
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="64">
+      <c r="D31" s="4"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="63">
         <f>F31*G30</f>
         <v>0</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="42" t="s">
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="65">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="64">
         <f>G30-G31</f>
         <v>0</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="40" t="s">
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="66">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="65">
         <f>G32*$F$33</f>
         <v>0</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="30" t="s">
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="70">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="69">
         <f>G33+G32</f>
         <v>0</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="112" t="s">
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="99" t="s">
+      <c r="C38" s="117"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="100"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="96"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="80"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="96"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="80"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="97"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="83"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="103"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="79"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="103"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="79"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="103"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="79"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="103"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="79"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="104"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B38:D38"/>
@@ -3714,20 +3610,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:C16 E15:G16">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
